--- a/simulation_data/iterative_algorithm/i_error_level_9_percent_water_40.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_9_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.67608864195491</v>
+        <v>90.23772069415764</v>
       </c>
       <c r="D2" t="n">
-        <v>11.91243678853311</v>
+        <v>9.934074634562037</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.86511713584983</v>
+        <v>91.07027159376497</v>
       </c>
       <c r="D3" t="n">
-        <v>12.21358940272849</v>
+        <v>10.27481815032142</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.83019192924627</v>
+        <v>87.45017909918592</v>
       </c>
       <c r="D4" t="n">
-        <v>11.90779036012264</v>
+        <v>11.66193423510141</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.82530110949946</v>
+        <v>86.63722735312479</v>
       </c>
       <c r="D5" t="n">
-        <v>11.48477747244996</v>
+        <v>11.60796080112363</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.57171620954674</v>
+        <v>86.61550319332795</v>
       </c>
       <c r="D6" t="n">
-        <v>10.69939087711147</v>
+        <v>9.310738921460565</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.99534558481776</v>
+        <v>85.61923369247033</v>
       </c>
       <c r="D7" t="n">
-        <v>10.0301233654044</v>
+        <v>11.61670014169471</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.82904661137198</v>
+        <v>83.28518171929521</v>
       </c>
       <c r="D8" t="n">
-        <v>11.33851007022126</v>
+        <v>11.69965462870801</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>79.950704764504</v>
+        <v>83.29341387263401</v>
       </c>
       <c r="D9" t="n">
-        <v>11.68219559960793</v>
+        <v>12.28376185525643</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.44051676175883</v>
+        <v>82.15881182236652</v>
       </c>
       <c r="D10" t="n">
-        <v>11.68077192338299</v>
+        <v>11.20981870740113</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.56735073877391</v>
+        <v>80.58353522761605</v>
       </c>
       <c r="D11" t="n">
-        <v>13.17704685147779</v>
+        <v>11.43097695042601</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.18461989308014</v>
+        <v>80.9533191779751</v>
       </c>
       <c r="D12" t="n">
-        <v>11.87928941761661</v>
+        <v>12.35498848415791</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.7694406868066</v>
+        <v>79.50034692950632</v>
       </c>
       <c r="D13" t="n">
-        <v>10.41103226348316</v>
+        <v>11.50196639183977</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.37093702309613</v>
+        <v>78.19098509574124</v>
       </c>
       <c r="D14" t="n">
-        <v>13.40645153127931</v>
+        <v>10.18811479370174</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.28943071387606</v>
+        <v>77.81130363893526</v>
       </c>
       <c r="D15" t="n">
-        <v>11.69566245156292</v>
+        <v>11.62698201006431</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.41160667537908</v>
+        <v>78.57357778457336</v>
       </c>
       <c r="D16" t="n">
-        <v>12.00986711316377</v>
+        <v>11.95139707896865</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>73.60679795619235</v>
+        <v>74.08949219831894</v>
       </c>
       <c r="D17" t="n">
-        <v>9.562601360643974</v>
+        <v>10.70793421133153</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.90804235915174</v>
+        <v>72.332625219462</v>
       </c>
       <c r="D18" t="n">
-        <v>10.9233492568856</v>
+        <v>12.58605359964007</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.21667723023924</v>
+        <v>72.33813542773346</v>
       </c>
       <c r="D19" t="n">
-        <v>11.85606841399902</v>
+        <v>10.99664192950332</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.67989469468917</v>
+        <v>69.49860490619663</v>
       </c>
       <c r="D20" t="n">
-        <v>10.20830699320778</v>
+        <v>11.26680485298279</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.21816508408888</v>
+        <v>69.44946663164838</v>
       </c>
       <c r="D21" t="n">
-        <v>12.34948192689438</v>
+        <v>11.39295028410696</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>68.19015239513774</v>
+        <v>69.07654261725884</v>
       </c>
       <c r="D22" t="n">
-        <v>11.87703470464854</v>
+        <v>11.58809286867226</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.29573339876272</v>
+        <v>69.241284035863</v>
       </c>
       <c r="D23" t="n">
-        <v>12.07581585988721</v>
+        <v>9.779224355950925</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.60044194879019</v>
+        <v>65.73873068009956</v>
       </c>
       <c r="D24" t="n">
-        <v>10.90397850102566</v>
+        <v>10.50930184392917</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.57717187386044</v>
+        <v>66.73967210065187</v>
       </c>
       <c r="D25" t="n">
-        <v>12.68391335755751</v>
+        <v>10.96230136016346</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.77171179413655</v>
+        <v>65.83305557880682</v>
       </c>
       <c r="D26" t="n">
-        <v>12.19663348288129</v>
+        <v>11.46455398558393</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.78333694535677</v>
+        <v>65.90140056765027</v>
       </c>
       <c r="D27" t="n">
-        <v>11.42659193914304</v>
+        <v>8.978509970996635</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>62.88285897361333</v>
+        <v>63.42694839681344</v>
       </c>
       <c r="D28" t="n">
-        <v>10.45895729747735</v>
+        <v>11.01066387537286</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>61.38276101527801</v>
+        <v>62.72671508457098</v>
       </c>
       <c r="D29" t="n">
-        <v>12.09557453733457</v>
+        <v>12.2734946781704</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.79976193235956</v>
+        <v>62.3749984922815</v>
       </c>
       <c r="D30" t="n">
-        <v>11.81116853817438</v>
+        <v>9.148941202749</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>59.90461609760697</v>
+        <v>59.73641473296146</v>
       </c>
       <c r="D31" t="n">
-        <v>11.39251678732113</v>
+        <v>11.9460635747331</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.92249800508331</v>
+        <v>60.21892619686546</v>
       </c>
       <c r="D32" t="n">
-        <v>12.41019910107551</v>
+        <v>10.03237013826816</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>56.0258986157618</v>
+        <v>59.68227540849482</v>
       </c>
       <c r="D33" t="n">
-        <v>12.58378203223533</v>
+        <v>11.29202890244662</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>60.07157398042411</v>
+        <v>58.65412751865585</v>
       </c>
       <c r="D34" t="n">
-        <v>12.11375851021415</v>
+        <v>11.37983058168044</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.19909902631149</v>
+        <v>56.39945185771675</v>
       </c>
       <c r="D35" t="n">
-        <v>11.59751720574501</v>
+        <v>12.35481806518401</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.26845078054426</v>
+        <v>53.72219564324194</v>
       </c>
       <c r="D36" t="n">
-        <v>12.37894584597889</v>
+        <v>11.39582130971985</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.22854991180695</v>
+        <v>55.30472486288139</v>
       </c>
       <c r="D37" t="n">
-        <v>10.41384172694075</v>
+        <v>11.45588679382795</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>56.77391491428605</v>
+        <v>55.07655336537722</v>
       </c>
       <c r="D38" t="n">
-        <v>12.36546565231743</v>
+        <v>12.99816650608192</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>51.70777319477705</v>
+        <v>54.81210002636587</v>
       </c>
       <c r="D39" t="n">
-        <v>11.4522090950055</v>
+        <v>11.67834135645582</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.54778516425085</v>
+        <v>51.69708138789374</v>
       </c>
       <c r="D40" t="n">
-        <v>11.74695504522518</v>
+        <v>11.65723633834297</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>49.85682728295942</v>
+        <v>49.58867142171143</v>
       </c>
       <c r="D41" t="n">
-        <v>12.05912188103819</v>
+        <v>12.64613151842769</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>52.29138292857505</v>
+        <v>49.09211940630271</v>
       </c>
       <c r="D42" t="n">
-        <v>10.62242598252435</v>
+        <v>10.83475657809332</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.3785809718566</v>
+        <v>48.23276819501786</v>
       </c>
       <c r="D43" t="n">
-        <v>12.03694492481855</v>
+        <v>11.638703498628</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.60053750897824</v>
+        <v>47.85421758023494</v>
       </c>
       <c r="D44" t="n">
-        <v>13.80074193322922</v>
+        <v>10.19451573173854</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>45.28865806156782</v>
+        <v>47.17627346203795</v>
       </c>
       <c r="D45" t="n">
-        <v>11.42640314796613</v>
+        <v>11.89081732438465</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.84620083570572</v>
+        <v>45.95544068436121</v>
       </c>
       <c r="D46" t="n">
-        <v>11.4022356660911</v>
+        <v>12.29770594015732</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.10771670159189</v>
+        <v>46.09995789741916</v>
       </c>
       <c r="D47" t="n">
-        <v>12.27840763618108</v>
+        <v>11.67767036064094</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.06238981049052</v>
+        <v>43.00244186061784</v>
       </c>
       <c r="D48" t="n">
-        <v>13.15241007505026</v>
+        <v>11.66759876732895</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>41.68972631467705</v>
+        <v>42.8857656968271</v>
       </c>
       <c r="D49" t="n">
-        <v>11.89497360977451</v>
+        <v>12.38534458818067</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.50967711447043</v>
+        <v>41.17092965000194</v>
       </c>
       <c r="D50" t="n">
-        <v>11.46855386409552</v>
+        <v>11.61096968479887</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>42.3670478489928</v>
+        <v>39.8307537044625</v>
       </c>
       <c r="D51" t="n">
-        <v>13.72952866958586</v>
+        <v>11.99800697036999</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.10465009183152</v>
+        <v>40.19786870854392</v>
       </c>
       <c r="D52" t="n">
-        <v>12.01555267129972</v>
+        <v>11.58191720005153</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.757795405831</v>
+        <v>40.54268303499222</v>
       </c>
       <c r="D53" t="n">
-        <v>12.66481335860069</v>
+        <v>10.48413598932483</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.40647317673049</v>
+        <v>38.33304004747659</v>
       </c>
       <c r="D54" t="n">
-        <v>11.42782789020603</v>
+        <v>12.02061521311158</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.14907272167461</v>
+        <v>37.19600609214825</v>
       </c>
       <c r="D55" t="n">
-        <v>10.49319688142149</v>
+        <v>11.83719383229367</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.68905569586703</v>
+        <v>35.40026535311094</v>
       </c>
       <c r="D56" t="n">
-        <v>11.32486847688236</v>
+        <v>11.70315479076812</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>37.99422088184356</v>
+        <v>37.40819132242989</v>
       </c>
       <c r="D57" t="n">
-        <v>11.76263285902103</v>
+        <v>11.16783240657119</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.69848961322507</v>
+        <v>33.50408255638107</v>
       </c>
       <c r="D58" t="n">
-        <v>11.52695875243134</v>
+        <v>10.28775011927589</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.80377382550135</v>
+        <v>32.98830723534377</v>
       </c>
       <c r="D59" t="n">
-        <v>12.01992260881205</v>
+        <v>12.00493128766559</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.049249254665</v>
+        <v>32.457725547904</v>
       </c>
       <c r="D60" t="n">
-        <v>11.95399281269585</v>
+        <v>11.50865902298111</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>32.15362869405044</v>
+        <v>31.62824302634402</v>
       </c>
       <c r="D61" t="n">
-        <v>12.66742000098775</v>
+        <v>11.55835522314504</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.37532500444687</v>
+        <v>29.4884143891289</v>
       </c>
       <c r="D62" t="n">
-        <v>13.17597853356724</v>
+        <v>12.18000280085794</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.05803266333085</v>
+        <v>29.67314236215988</v>
       </c>
       <c r="D63" t="n">
-        <v>11.32989759424137</v>
+        <v>11.49368271504354</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>30.21171677901038</v>
+        <v>27.48801151913397</v>
       </c>
       <c r="D64" t="n">
-        <v>11.45210926409824</v>
+        <v>11.2042482393635</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.67596582423929</v>
+        <v>25.79204173788256</v>
       </c>
       <c r="D65" t="n">
-        <v>11.36479976637394</v>
+        <v>13.38137646374274</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.19749014510219</v>
+        <v>26.4395215018754</v>
       </c>
       <c r="D66" t="n">
-        <v>10.14439231688306</v>
+        <v>12.59642266435455</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.92375019563205</v>
+        <v>26.1758856103692</v>
       </c>
       <c r="D67" t="n">
-        <v>11.18655274037874</v>
+        <v>11.56329858378725</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.74832155801469</v>
+        <v>23.24264331578409</v>
       </c>
       <c r="D68" t="n">
-        <v>12.49674813536361</v>
+        <v>11.3060128181924</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.83794621326139</v>
+        <v>23.52569757674989</v>
       </c>
       <c r="D69" t="n">
-        <v>12.18542123199877</v>
+        <v>12.90468587534263</v>
       </c>
     </row>
   </sheetData>
